--- a/1_1_StarreDriehoek/Benodigd materiaal.xlsx
+++ b/1_1_StarreDriehoek/Benodigd materiaal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nashanselma2\weekendschool\GitHub\Weekendschool-Wiskunde-Mathematics\1_1_StarreDriehoek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub\Weekendschool-Wiskunde-Mathematics\1_1_StarreDriehoek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D503D00A-283D-426E-BCAB-5D063E72E46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B27CAB-4FE2-4DF7-A04D-6ED40641F7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21780" yWindow="990" windowWidth="21600" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,25 +57,25 @@
     <t>aantal veelhoeken</t>
   </si>
   <si>
-    <t>vleugelbouten M5 x 40</t>
-  </si>
-  <si>
-    <t>zelfborgende moeren M5</t>
-  </si>
-  <si>
-    <t>inslagmoeren M5</t>
-  </si>
-  <si>
-    <t>carrosserieringen M5</t>
-  </si>
-  <si>
-    <t>ringen M5</t>
-  </si>
-  <si>
     <t>nodig</t>
   </si>
   <si>
     <t>aanwezig</t>
+  </si>
+  <si>
+    <t>vleugelbouten M6 x 40</t>
+  </si>
+  <si>
+    <t>zelfborgende moeren M6</t>
+  </si>
+  <si>
+    <t>inslagmoeren M6</t>
+  </si>
+  <si>
+    <t>ringen M6</t>
+  </si>
+  <si>
+    <t>carrosserieringen M6 x 30</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,54 +524,63 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <f>H7</f>
         <v>110</v>
       </c>
       <c r="F10">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <f>H7</f>
         <v>110</v>
       </c>
+      <c r="F11">
+        <v>500</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <f>H7</f>
         <v>110</v>
       </c>
+      <c r="F12">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <f>4*H7</f>
         <v>440</v>
       </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <f>H7</f>
